--- a/ONCHO/Entomological survey Survey/Nigeria/2024/delta/ng_oncho_2408_1_community_del.xlsx
+++ b/ONCHO/Entomological survey Survey/Nigeria/2024/delta/ng_oncho_2408_1_community_del.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\ONCHO\Entomological survey Survey\Nigeria\2024\delta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39703E69-AC2A-468D-85CC-4D0890991314}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83CB8BD8-A89B-4A25-8EAF-C465F1050609}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="871" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="863" uniqueCount="265">
   <si>
     <t>type</t>
   </si>
@@ -242,12 +242,6 @@
     <t>site_id</t>
   </si>
   <si>
-    <t>ng_oncho_2408_1_community_del</t>
-  </si>
-  <si>
-    <t>(Delta) 1. Community Registration Form</t>
-  </si>
-  <si>
     <t>DELTA</t>
   </si>
   <si>
@@ -269,9 +263,6 @@
     <t>IKA NORTH EAST</t>
   </si>
   <si>
-    <t>IKA NORTHEAST</t>
-  </si>
-  <si>
     <t>IKA SOUTH</t>
   </si>
   <si>
@@ -296,9 +287,6 @@
     <t>OSHIMILI SOUTH</t>
   </si>
   <si>
-    <t>OSIMILI NORTH</t>
-  </si>
-  <si>
     <t>PATANI</t>
   </si>
   <si>
@@ -837,6 +825,12 @@
   </si>
   <si>
     <t>DEL_WAN_M_094</t>
+  </si>
+  <si>
+    <t>(Delta) 1. Community Registration Form V2</t>
+  </si>
+  <si>
+    <t>ng_oncho_2408_1_community_del_v2</t>
   </si>
 </sst>
 </file>
@@ -997,7 +991,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1063,6 +1057,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1412,7 +1410,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L4" sqref="L4:L5"/>
+      <selection pane="bottomRight" activeCell="C25" sqref="C25:C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1761,11 +1759,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F205"/>
+  <dimension ref="A1:F203"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A180" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A6" sqref="A6:XFD205"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F110" sqref="F110:F203"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1834,10 +1832,10 @@
         <v>56</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -1845,13 +1843,13 @@
         <v>57</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -1859,13 +1857,13 @@
         <v>57</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -1873,13 +1871,13 @@
         <v>57</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -1887,13 +1885,13 @@
         <v>57</v>
       </c>
       <c r="B11" s="24" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -1901,13 +1899,13 @@
         <v>57</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -1915,13 +1913,13 @@
         <v>57</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -1929,13 +1927,13 @@
         <v>57</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D14" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -1943,13 +1941,13 @@
         <v>57</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -1957,13 +1955,13 @@
         <v>57</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D16" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -1971,13 +1969,13 @@
         <v>57</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D17" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -1985,13 +1983,13 @@
         <v>57</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D18" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -1999,13 +1997,13 @@
         <v>57</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D19" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -2013,13 +2011,13 @@
         <v>57</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D20" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -2027,13 +2025,13 @@
         <v>57</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D21" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -2041,13 +2039,13 @@
         <v>57</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D22" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -2055,13 +2053,13 @@
         <v>57</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D23" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -2069,13 +2067,13 @@
         <v>57</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D24" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -2083,13 +2081,13 @@
         <v>57</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D25" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -2097,1175 +2095,1254 @@
         <v>57</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D26" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="D27" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="23" t="s">
-        <v>57</v>
+      <c r="A28" t="s">
+        <v>62</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D28" t="s">
-        <v>70</v>
+        <v>95</v>
+      </c>
+      <c r="E28" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>62</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E29" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>62</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E30" t="s">
-        <v>71</v>
+      <c r="B30" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="C30" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="D30" s="26"/>
+      <c r="E30" s="26" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>62</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E31" t="s">
-        <v>71</v>
+      <c r="B31" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="C31" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="D31" s="26"/>
+      <c r="E31" s="26" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>62</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="E32" t="s">
-        <v>71</v>
+      <c r="B32" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="C32" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="D32" s="26"/>
+      <c r="E32" s="26" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>62</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E33" t="s">
-        <v>71</v>
+      <c r="B33" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="C33" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="D33" s="26"/>
+      <c r="E33" s="26" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>62</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="E34" t="s">
-        <v>71</v>
+      <c r="B34" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="C34" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="D34" s="26"/>
+      <c r="E34" s="26" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>62</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="E35" t="s">
-        <v>71</v>
+      <c r="B35" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="C35" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="D35" s="26"/>
+      <c r="E35" s="26" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>62</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E36" t="s">
-        <v>71</v>
+      <c r="B36" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="C36" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="D36" s="26"/>
+      <c r="E36" s="26" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>62</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B37" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C37" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="E37" t="s">
-        <v>71</v>
+      <c r="D37" s="26"/>
+      <c r="E37" s="26" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>62</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B38" s="25" t="s">
         <v>100</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C38" s="25" t="s">
         <v>100</v>
       </c>
-      <c r="E38" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="D38" s="26"/>
+      <c r="E38" s="26" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>62</v>
       </c>
-      <c r="B39" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="E39" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B39" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="C39" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="D39" s="26"/>
+      <c r="E39" s="26" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>62</v>
       </c>
-      <c r="B40" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="E40" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B40" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="C40" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="D40" s="26"/>
+      <c r="E40" s="26" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>62</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B41" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="C41" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="D41" s="26"/>
+      <c r="E41" s="26" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>62</v>
+      </c>
+      <c r="B42" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C42" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="E41" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>62</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="E42" t="s">
-        <v>71</v>
+      <c r="D42" s="26"/>
+      <c r="E42" s="26" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>62</v>
       </c>
-      <c r="B43" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="E43" t="s">
-        <v>71</v>
+      <c r="B43" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="C43" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="D43" s="26"/>
+      <c r="E43" s="26" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>62</v>
       </c>
-      <c r="B44" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="E44" t="s">
-        <v>72</v>
+      <c r="B44" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="C44" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="D44" s="26"/>
+      <c r="E44" s="26" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>62</v>
       </c>
-      <c r="B45" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E45" t="s">
-        <v>72</v>
+      <c r="B45" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="C45" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="D45" s="26"/>
+      <c r="E45" s="26" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>62</v>
       </c>
-      <c r="B46" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="E46" t="s">
-        <v>72</v>
+      <c r="B46" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="C46" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="D46" s="26"/>
+      <c r="E46" s="26" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>62</v>
       </c>
-      <c r="B47" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E47" t="s">
-        <v>72</v>
+      <c r="B47" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="C47" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="D47" s="26"/>
+      <c r="E47" s="26" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>62</v>
       </c>
-      <c r="B48" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="E48" t="s">
-        <v>72</v>
+      <c r="B48" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="C48" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="D48" s="26"/>
+      <c r="E48" s="26" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>62</v>
       </c>
-      <c r="B49" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="E49" t="s">
-        <v>72</v>
+      <c r="B49" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="C49" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="D49" s="26"/>
+      <c r="E49" s="26" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>62</v>
       </c>
-      <c r="B50" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E50" t="s">
-        <v>72</v>
+      <c r="B50" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="C50" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="D50" s="26"/>
+      <c r="E50" s="26" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>62</v>
       </c>
-      <c r="B51" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="E51" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B51" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="C51" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="D51" s="26"/>
+      <c r="E51" s="26" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>62</v>
       </c>
-      <c r="B52" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="E52" t="s">
-        <v>72</v>
+      <c r="B52" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="C52" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="D52" s="26"/>
+      <c r="E52" s="26" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>62</v>
       </c>
-      <c r="B53" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="E53" t="s">
-        <v>72</v>
+      <c r="B53" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="C53" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="D53" s="26"/>
+      <c r="E53" s="26" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>62</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="B54" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="C54" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="D54" s="26"/>
+      <c r="E54" s="26" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>62</v>
+      </c>
+      <c r="B55" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="C55" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="E54" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>62</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="E55" t="s">
-        <v>73</v>
+      <c r="D55" s="26"/>
+      <c r="E55" s="26" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>62</v>
       </c>
-      <c r="B56" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="E56" t="s">
-        <v>74</v>
+      <c r="B56" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="C56" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="D56" s="26"/>
+      <c r="E56" s="26" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>62</v>
       </c>
-      <c r="B57" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="E57" t="s">
-        <v>74</v>
+      <c r="B57" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="C57" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="D57" s="26"/>
+      <c r="E57" s="26" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>62</v>
       </c>
-      <c r="B58" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="E58" t="s">
-        <v>74</v>
+      <c r="B58" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="C58" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="D58" s="26"/>
+      <c r="E58" s="26" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>62</v>
       </c>
-      <c r="B59" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="E59" t="s">
-        <v>74</v>
+      <c r="B59" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="C59" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="D59" s="26"/>
+      <c r="E59" s="26" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>62</v>
       </c>
-      <c r="B60" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="E60" t="s">
-        <v>75</v>
+      <c r="B60" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="C60" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="D60" s="26"/>
+      <c r="E60" s="26" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>62</v>
       </c>
-      <c r="B61" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="E61" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B61" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="C61" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="D61" s="26"/>
+      <c r="E61" s="26" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>62</v>
       </c>
-      <c r="B62" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="E62" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B62" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="C62" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="D62" s="26"/>
+      <c r="E62" s="26" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>62</v>
       </c>
-      <c r="B63" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="E63" t="s">
-        <v>75</v>
+      <c r="B63" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="C63" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="D63" s="26"/>
+      <c r="E63" s="26" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>62</v>
       </c>
-      <c r="B64" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="E64" t="s">
-        <v>75</v>
+      <c r="B64" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="C64" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="D64" s="26"/>
+      <c r="E64" s="26" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>62</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="B65" s="25" t="s">
         <v>127</v>
       </c>
-      <c r="C65" s="1" t="s">
+      <c r="C65" s="25" t="s">
         <v>127</v>
       </c>
-      <c r="E65" t="s">
-        <v>75</v>
+      <c r="D65" s="26"/>
+      <c r="E65" s="26" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>62</v>
       </c>
-      <c r="B66" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="E66" t="s">
-        <v>76</v>
+      <c r="B66" s="25" t="s">
+        <v>124</v>
+      </c>
+      <c r="C66" s="25" t="s">
+        <v>124</v>
+      </c>
+      <c r="D66" s="26"/>
+      <c r="E66" s="26" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>62</v>
       </c>
-      <c r="B67" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="E67" t="s">
-        <v>77</v>
+      <c r="B67" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="C67" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="D67" s="26"/>
+      <c r="E67" s="26" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>62</v>
       </c>
-      <c r="B68" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="E68" t="s">
-        <v>77</v>
+      <c r="B68" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="C68" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="D68" s="26"/>
+      <c r="E68" s="26" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>62</v>
       </c>
-      <c r="B69" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="E69" t="s">
-        <v>77</v>
+      <c r="B69" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="C69" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="D69" s="26"/>
+      <c r="E69" s="26" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>62</v>
       </c>
-      <c r="B70" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="E70" t="s">
-        <v>78</v>
+      <c r="B70" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="C70" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="D70" s="26"/>
+      <c r="E70" s="26" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>62</v>
       </c>
-      <c r="B71" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="E71" t="s">
-        <v>78</v>
+      <c r="B71" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="C71" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="D71" s="26"/>
+      <c r="E71" s="26" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>62</v>
       </c>
-      <c r="B72" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="E72" t="s">
-        <v>79</v>
+      <c r="B72" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="C72" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="D72" s="26"/>
+      <c r="E72" s="26" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>62</v>
       </c>
-      <c r="B73" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="E73" t="s">
-        <v>79</v>
+      <c r="B73" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="C73" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="D73" s="26"/>
+      <c r="E73" s="26" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>62</v>
       </c>
-      <c r="B74" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="E74" t="s">
-        <v>79</v>
+      <c r="B74" s="25" t="s">
+        <v>134</v>
+      </c>
+      <c r="C74" s="25" t="s">
+        <v>134</v>
+      </c>
+      <c r="D74" s="26"/>
+      <c r="E74" s="26" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>62</v>
       </c>
-      <c r="B75" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="E75" t="s">
-        <v>79</v>
+      <c r="B75" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="C75" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="D75" s="26"/>
+      <c r="E75" s="26" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>62</v>
       </c>
-      <c r="B76" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="E76" t="s">
-        <v>80</v>
+      <c r="B76" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="C76" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="D76" s="26"/>
+      <c r="E76" s="26" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>62</v>
       </c>
-      <c r="B77" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="E77" t="s">
-        <v>81</v>
+      <c r="B77" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="C77" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="D77" s="26"/>
+      <c r="E77" s="26" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>62</v>
       </c>
-      <c r="B78" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="E78" t="s">
-        <v>81</v>
+      <c r="B78" s="25" t="s">
+        <v>137</v>
+      </c>
+      <c r="C78" s="25" t="s">
+        <v>137</v>
+      </c>
+      <c r="D78" s="26"/>
+      <c r="E78" s="26" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>62</v>
       </c>
-      <c r="B79" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="E79" t="s">
-        <v>81</v>
+      <c r="B79" s="25" t="s">
+        <v>139</v>
+      </c>
+      <c r="C79" s="25" t="s">
+        <v>139</v>
+      </c>
+      <c r="D79" s="26"/>
+      <c r="E79" s="26" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>62</v>
       </c>
-      <c r="B80" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="E80" t="s">
-        <v>81</v>
+      <c r="B80" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="C80" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="D80" s="26"/>
+      <c r="E80" s="26" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>62</v>
       </c>
-      <c r="B81" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="E81" t="s">
-        <v>81</v>
+      <c r="B81" s="25" t="s">
+        <v>142</v>
+      </c>
+      <c r="C81" s="25" t="s">
+        <v>142</v>
+      </c>
+      <c r="D81" s="26"/>
+      <c r="E81" s="26" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>62</v>
       </c>
-      <c r="B82" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E82" t="s">
-        <v>81</v>
+      <c r="B82" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="C82" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="D82" s="26"/>
+      <c r="E82" s="26" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>62</v>
       </c>
-      <c r="B83" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="E83" t="s">
-        <v>82</v>
+      <c r="B83" s="25" t="s">
+        <v>143</v>
+      </c>
+      <c r="C83" s="25" t="s">
+        <v>143</v>
+      </c>
+      <c r="D83" s="26"/>
+      <c r="E83" s="26" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>62</v>
       </c>
-      <c r="B84" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="E84" t="s">
-        <v>82</v>
+      <c r="B84" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="C84" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="D84" s="26"/>
+      <c r="E84" s="26" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>62</v>
       </c>
-      <c r="B85" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="E85" t="s">
-        <v>83</v>
+      <c r="B85" s="25" t="s">
+        <v>146</v>
+      </c>
+      <c r="C85" s="25" t="s">
+        <v>146</v>
+      </c>
+      <c r="D85" s="26"/>
+      <c r="E85" s="26" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>62</v>
       </c>
-      <c r="B86" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="E86" t="s">
-        <v>84</v>
+      <c r="B86" s="25" t="s">
+        <v>147</v>
+      </c>
+      <c r="C86" s="25" t="s">
+        <v>147</v>
+      </c>
+      <c r="D86" s="26"/>
+      <c r="E86" s="26" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>62</v>
       </c>
-      <c r="B87" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="E87" t="s">
-        <v>84</v>
+      <c r="B87" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="C87" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="D87" s="26"/>
+      <c r="E87" s="26" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>62</v>
       </c>
-      <c r="B88" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="E88" t="s">
-        <v>84</v>
+      <c r="B88" s="25" t="s">
+        <v>157</v>
+      </c>
+      <c r="C88" s="25" t="s">
+        <v>157</v>
+      </c>
+      <c r="D88" s="26"/>
+      <c r="E88" s="26" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>62</v>
       </c>
-      <c r="B89" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="E89" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B89" s="25" t="s">
+        <v>148</v>
+      </c>
+      <c r="C89" s="25" t="s">
+        <v>148</v>
+      </c>
+      <c r="D89" s="26"/>
+      <c r="E89" s="26" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>62</v>
       </c>
-      <c r="B90" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="C90" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="E90" t="s">
-        <v>84</v>
+      <c r="B90" s="25" t="s">
+        <v>156</v>
+      </c>
+      <c r="C90" s="25" t="s">
+        <v>156</v>
+      </c>
+      <c r="D90" s="26"/>
+      <c r="E90" s="26" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>62</v>
       </c>
-      <c r="B91" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C91" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="E91" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B91" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="C91" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="D91" s="26"/>
+      <c r="E91" s="26" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>62</v>
       </c>
-      <c r="B92" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="E92" t="s">
-        <v>84</v>
+      <c r="B92" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="C92" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="D92" s="26"/>
+      <c r="E92" s="26" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>62</v>
       </c>
-      <c r="B93" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="E93" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B93" s="25" t="s">
+        <v>151</v>
+      </c>
+      <c r="C93" s="25" t="s">
+        <v>151</v>
+      </c>
+      <c r="D93" s="26"/>
+      <c r="E93" s="26" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>62</v>
       </c>
-      <c r="B94" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="C94" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="E94" t="s">
-        <v>85</v>
+      <c r="B94" s="25" t="s">
+        <v>152</v>
+      </c>
+      <c r="C94" s="25" t="s">
+        <v>152</v>
+      </c>
+      <c r="D94" s="26"/>
+      <c r="E94" s="26" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>62</v>
       </c>
-      <c r="B95" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="C95" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="E95" t="s">
-        <v>85</v>
+      <c r="B95" s="25" t="s">
+        <v>154</v>
+      </c>
+      <c r="C95" s="25" t="s">
+        <v>154</v>
+      </c>
+      <c r="D95" s="26"/>
+      <c r="E95" s="26" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>62</v>
       </c>
-      <c r="B96" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="C96" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="E96" t="s">
-        <v>85</v>
+      <c r="B96" s="25" t="s">
+        <v>155</v>
+      </c>
+      <c r="C96" s="25" t="s">
+        <v>155</v>
+      </c>
+      <c r="D96" s="26"/>
+      <c r="E96" s="26" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>62</v>
       </c>
-      <c r="B97" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="C97" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="E97" t="s">
-        <v>85</v>
+      <c r="B97" s="25" t="s">
+        <v>153</v>
+      </c>
+      <c r="C97" s="25" t="s">
+        <v>153</v>
+      </c>
+      <c r="D97" s="26"/>
+      <c r="E97" s="26" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>62</v>
       </c>
-      <c r="B98" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="C98" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="E98" t="s">
-        <v>86</v>
+      <c r="B98" s="25" t="s">
+        <v>158</v>
+      </c>
+      <c r="C98" s="25" t="s">
+        <v>158</v>
+      </c>
+      <c r="D98" s="26"/>
+      <c r="E98" s="26" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>62</v>
       </c>
-      <c r="B99" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="C99" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="E99" t="s">
-        <v>86</v>
+      <c r="B99" s="25" t="s">
+        <v>159</v>
+      </c>
+      <c r="C99" s="25" t="s">
+        <v>159</v>
+      </c>
+      <c r="D99" s="26"/>
+      <c r="E99" s="26" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>62</v>
       </c>
-      <c r="B100" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="C100" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="E100" t="s">
-        <v>87</v>
+      <c r="B100" s="25" t="s">
+        <v>160</v>
+      </c>
+      <c r="C100" s="25" t="s">
+        <v>160</v>
+      </c>
+      <c r="D100" s="26"/>
+      <c r="E100" s="26" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>62</v>
       </c>
-      <c r="B101" s="1" t="s">
+      <c r="B101" s="25" t="s">
         <v>163</v>
       </c>
-      <c r="C101" s="1" t="s">
+      <c r="C101" s="25" t="s">
         <v>163</v>
       </c>
-      <c r="E101" t="s">
-        <v>88</v>
+      <c r="D101" s="26"/>
+      <c r="E101" s="26" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>62</v>
       </c>
-      <c r="B102" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="C102" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="E102" t="s">
-        <v>88</v>
+      <c r="B102" s="25" t="s">
+        <v>161</v>
+      </c>
+      <c r="C102" s="25" t="s">
+        <v>161</v>
+      </c>
+      <c r="D102" s="26"/>
+      <c r="E102" s="26" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>62</v>
       </c>
-      <c r="B103" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="C103" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="E103" t="s">
-        <v>89</v>
+      <c r="B103" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="C103" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="D103" s="26"/>
+      <c r="E103" s="26" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>62</v>
       </c>
-      <c r="B104" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="C104" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="E104" t="s">
-        <v>89</v>
+      <c r="B104" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="C104" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="D104" s="26"/>
+      <c r="E104" s="26" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>62</v>
       </c>
-      <c r="B105" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="C105" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="E105" t="s">
-        <v>89</v>
+      <c r="B105" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="C105" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="D105" s="26"/>
+      <c r="E105" s="26" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>62</v>
       </c>
-      <c r="B106" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="E106" t="s">
-        <v>90</v>
+      <c r="B106" s="25" t="s">
+        <v>164</v>
+      </c>
+      <c r="C106" s="25" t="s">
+        <v>164</v>
+      </c>
+      <c r="D106" s="26"/>
+      <c r="E106" s="26" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>62</v>
       </c>
-      <c r="B107" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="C107" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="E107" t="s">
-        <v>90</v>
+      <c r="B107" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="C107" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="D107" s="26"/>
+      <c r="E107" s="26" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>62</v>
       </c>
-      <c r="B108" s="1" t="s">
+      <c r="B108" s="25" t="s">
+        <v>168</v>
+      </c>
+      <c r="C108" s="25" t="s">
+        <v>168</v>
+      </c>
+      <c r="D108" s="26"/>
+      <c r="E108" s="26" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="F110" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A111" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="B111" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="C108" s="1" t="s">
+      <c r="C111" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="E108" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
-        <v>62</v>
-      </c>
-      <c r="B109" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C109" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="E109" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
-        <v>62</v>
-      </c>
-      <c r="B110" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="C110" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="E110" t="s">
-        <v>91</v>
+      <c r="F111" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
@@ -3273,13 +3350,13 @@
         <v>67</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F112" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
@@ -3287,13 +3364,13 @@
         <v>67</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F113" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
@@ -3301,13 +3378,13 @@
         <v>67</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F114" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
@@ -3315,13 +3392,13 @@
         <v>67</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F115" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
@@ -3329,13 +3406,13 @@
         <v>67</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F116" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
@@ -3343,13 +3420,13 @@
         <v>67</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F117" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
@@ -3357,13 +3434,13 @@
         <v>67</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F118" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
@@ -3371,13 +3448,13 @@
         <v>67</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F119" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
@@ -3385,13 +3462,13 @@
         <v>67</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F120" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
@@ -3399,13 +3476,13 @@
         <v>67</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F121" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
@@ -3413,13 +3490,13 @@
         <v>67</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F122" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
@@ -3427,13 +3504,13 @@
         <v>67</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F123" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
@@ -3441,13 +3518,13 @@
         <v>67</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F124" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
@@ -3455,13 +3532,13 @@
         <v>67</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F125" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
@@ -3469,13 +3546,13 @@
         <v>67</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F126" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
@@ -3483,13 +3560,13 @@
         <v>67</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F127" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
@@ -3497,13 +3574,13 @@
         <v>67</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F128" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
@@ -3511,13 +3588,13 @@
         <v>67</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F129" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
@@ -3525,13 +3602,13 @@
         <v>67</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F130" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
@@ -3539,13 +3616,13 @@
         <v>67</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F131" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
@@ -3553,13 +3630,13 @@
         <v>67</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F132" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
@@ -3567,13 +3644,13 @@
         <v>67</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F133" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
@@ -3581,13 +3658,13 @@
         <v>67</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F134" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
@@ -3595,13 +3672,13 @@
         <v>67</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F135" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
@@ -3609,13 +3686,13 @@
         <v>67</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F136" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
@@ -3623,13 +3700,13 @@
         <v>67</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F137" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
@@ -3637,13 +3714,13 @@
         <v>67</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F138" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
@@ -3651,13 +3728,13 @@
         <v>67</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F139" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
@@ -3665,13 +3742,13 @@
         <v>67</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F140" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
@@ -3679,13 +3756,13 @@
         <v>67</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="F141" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
@@ -3693,13 +3770,13 @@
         <v>67</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F142" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
@@ -3707,13 +3784,13 @@
         <v>67</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F143" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
@@ -3721,13 +3798,13 @@
         <v>67</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F144" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
@@ -3735,13 +3812,13 @@
         <v>67</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F145" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
@@ -3749,13 +3826,13 @@
         <v>67</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F146" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
@@ -3763,13 +3840,13 @@
         <v>67</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F147" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
@@ -3777,13 +3854,13 @@
         <v>67</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F148" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
@@ -3791,13 +3868,13 @@
         <v>67</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F149" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
@@ -3805,13 +3882,13 @@
         <v>67</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F150" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
@@ -3819,13 +3896,13 @@
         <v>67</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F151" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
@@ -3833,13 +3910,13 @@
         <v>67</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F152" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
@@ -3847,13 +3924,13 @@
         <v>67</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="F153" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
@@ -3861,13 +3938,13 @@
         <v>67</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F154" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
@@ -3875,13 +3952,13 @@
         <v>67</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F155" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
@@ -3889,13 +3966,13 @@
         <v>67</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F156" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
@@ -3903,13 +3980,13 @@
         <v>67</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F157" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
@@ -3917,13 +3994,13 @@
         <v>67</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F158" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
@@ -3931,13 +4008,13 @@
         <v>67</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="F159" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
@@ -3945,13 +4022,13 @@
         <v>67</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F160" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
@@ -3959,13 +4036,13 @@
         <v>67</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F161" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
@@ -3973,13 +4050,13 @@
         <v>67</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F162" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
@@ -3987,13 +4064,13 @@
         <v>67</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F163" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
@@ -4001,13 +4078,13 @@
         <v>67</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F164" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
@@ -4015,13 +4092,13 @@
         <v>67</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="F165" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
@@ -4029,13 +4106,13 @@
         <v>67</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F166" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
@@ -4043,13 +4120,13 @@
         <v>67</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F167" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
@@ -4057,13 +4134,13 @@
         <v>67</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F168" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
@@ -4071,13 +4148,13 @@
         <v>67</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F169" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
@@ -4085,13 +4162,13 @@
         <v>67</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F170" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
@@ -4099,13 +4176,13 @@
         <v>67</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F171" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
@@ -4113,13 +4190,13 @@
         <v>67</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F172" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
@@ -4127,13 +4204,13 @@
         <v>67</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F173" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
@@ -4141,13 +4218,13 @@
         <v>67</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F174" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
@@ -4155,13 +4232,13 @@
         <v>67</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F175" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
@@ -4169,13 +4246,13 @@
         <v>67</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F176" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
@@ -4183,13 +4260,13 @@
         <v>67</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="F177" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
@@ -4197,13 +4274,13 @@
         <v>67</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F178" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
@@ -4211,13 +4288,13 @@
         <v>67</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="F179" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
@@ -4225,13 +4302,13 @@
         <v>67</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F180" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.25">
@@ -4239,13 +4316,13 @@
         <v>67</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F181" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
@@ -4253,13 +4330,13 @@
         <v>67</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F182" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
@@ -4267,13 +4344,13 @@
         <v>67</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F183" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.25">
@@ -4281,13 +4358,13 @@
         <v>67</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F184" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
@@ -4295,13 +4372,13 @@
         <v>67</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F185" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.25">
@@ -4309,13 +4386,13 @@
         <v>67</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F186" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.25">
@@ -4323,13 +4400,13 @@
         <v>67</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="F187" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.25">
@@ -4337,13 +4414,13 @@
         <v>67</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F188" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
@@ -4351,13 +4428,13 @@
         <v>67</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="F189" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.25">
@@ -4365,13 +4442,13 @@
         <v>67</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F190" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.25">
@@ -4379,13 +4456,13 @@
         <v>67</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="F191" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.25">
@@ -4393,13 +4470,13 @@
         <v>67</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F192" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.25">
@@ -4407,13 +4484,13 @@
         <v>67</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="F193" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.25">
@@ -4421,13 +4498,13 @@
         <v>67</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F194" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.25">
@@ -4435,13 +4512,13 @@
         <v>67</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F195" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.25">
@@ -4449,13 +4526,13 @@
         <v>67</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F196" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.25">
@@ -4463,13 +4540,13 @@
         <v>67</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="F197" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.25">
@@ -4477,13 +4554,13 @@
         <v>67</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F198" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.25">
@@ -4491,13 +4568,13 @@
         <v>67</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F199" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.25">
@@ -4505,13 +4582,13 @@
         <v>67</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F200" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.25">
@@ -4519,13 +4596,13 @@
         <v>67</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F201" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.25">
@@ -4533,13 +4610,13 @@
         <v>67</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F202" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.25">
@@ -4547,41 +4624,13 @@
         <v>67</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F203" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A204" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="B204" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="C204" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="F204" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A205" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="B205" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="C205" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="F205" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -4598,7 +4647,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4622,10 +4671,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>69</v>
+        <v>263</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>68</v>
+        <v>264</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>21</v>
